--- a/biology/Zoologie/Gymnopleurus/Gymnopleurus.xlsx
+++ b/biology/Zoologie/Gymnopleurus/Gymnopleurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnopleurus est un genre d'insectes coléoptères de la famille des Scarabaeidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gymnopleurus sont des scarabées noirs ou verts, souvent avec éclat métallique.
 La tête est large et bombée, le corps court et large. Le pronotum est au moins aussi large que les élytres.
@@ -545,7 +559,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnopleurus capensis
 Gymnopleurus flagellatus (Fabricius, 1787)
